--- a/data/trans_bre/P5_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-12,23%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 1,81</t>
+          <t>-19,68; 1,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 6,68</t>
+          <t>-17,76; 5,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,39; 5,34</t>
+          <t>-33,54; 2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 14,46</t>
+          <t>-30,58; 10,39</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>-10,59</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-18,77</t>
+          <t>-20,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,04%</t>
+          <t>-34,74%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 1,23</t>
+          <t>-22,2; 0,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,79; -7,09</t>
+          <t>-31,19; -8,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-37,21; 2,9</t>
+          <t>-37,54; 1,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -13,33</t>
+          <t>-49,13; -16,34</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>21,34%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 10,36</t>
+          <t>-7,17; 10,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 17,86</t>
+          <t>-2,21; 17,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 27,94</t>
+          <t>-15,29; 27,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 62,58</t>
+          <t>-4,89; 57,83</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-9,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,1%</t>
+          <t>-20,46%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,3; -0,8</t>
+          <t>-17,13; -1,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -0,64</t>
+          <t>-17,64; -1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,92; -1,79</t>
+          <t>-30,03; -2,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -1,14</t>
+          <t>-33,25; -1,87</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-8,8%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-12,12%</t>
+          <t>-11,51%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 5,79</t>
+          <t>-13,58; 4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 2,97</t>
+          <t>-15,15; 4,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 13,65</t>
+          <t>-25,5; 10,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 7,04</t>
+          <t>-29,5; 9,53</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>-10,55%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -1,65</t>
+          <t>-20,47; -2,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 5,94</t>
+          <t>-14,81; 6,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,2; -3,74</t>
+          <t>-36,3; -4,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 15,08</t>
+          <t>-28,95; 16,4</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,65%</t>
+          <t>-13,0%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,82; -2,76</t>
+          <t>-10,76; -3,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,93</t>
+          <t>-10,49; -1,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,16; -6,28</t>
+          <t>-20,92; -6,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,31; -2,05</t>
+          <t>-21,09; -4,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_5-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P5_5-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-6,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-16,67%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,23%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-9.020487678523793</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-5.356949232647485</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.1667439538212853</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1047374522673691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-19,68; 1,35</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,76; 5,34</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,54; 2,8</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-30,58; 10,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-19.68007513679148</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-16.53900509807803</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3353784561627653</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2921587939550377</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.345242398920323</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.264825929304612</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.02798325534526389</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1660782894960891</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,59</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-20,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-20,48%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-34,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-22,2; 0,6</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-31,19; -8,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,54; 1,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-49,13; -16,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.58677226044217</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-20.78179754035869</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.2048431798072218</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.3556903661544986</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,27%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,34%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-22.20129782206769</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-32.09595841698655</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3753885670388739</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5035029320374028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 10,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 17,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,29; 27,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; 57,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6044504509559676</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-8.673136230452464</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.01641293292815569</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>-0.1751280782923079</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-8,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,99</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-17,53%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-20,46%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.832861302678385</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>6.464130965730513</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.04270179981566304</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1736607436589645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,13; -1,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-17,64; -1,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; -2,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-33,25; -1,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.167585707457419</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.788689307239951</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1529471449961055</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1042624489154196</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.37184842445891</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.70719932597689</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2757005078344748</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5568298063551919</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-4,32</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-5,54</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,8%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; 4,81</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,15; 4,09</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-25,5; 10,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; 9,53</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-8.8515254368412</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-8.992258095246886</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1752819114545554</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.1876388661425584</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-11,24</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,79</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-22,36%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-10,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-17.1254998465852</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-16.60726661956467</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3002812098179023</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3209829225005119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,47; -2,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,81; 6,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-36,3; -4,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-28,95; 16,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-1.125534802729732</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.4055299398804353</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.02623560070921349</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>-0.00858916941262235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-6,99</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,2</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-14,12%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.316450293347374</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.485503593936319</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.08798836275064485</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-0.1136867331487268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; -3,03</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,49; -1,91</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; -6,66</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-21,09; -4,24</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.58490619553245</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.62235223742494</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.2549515810063488</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.2938189914481881</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>4.810714239569307</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.531966087341265</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.106326836516994</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.08786129814634659</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-11.243743619815</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-5.765850249746462</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2235901343523778</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.1251377490611977</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-20.46516584504187</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-16.94638157863553</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3629621924312683</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.3288112829696568</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-2.103422328951831</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>5.759771755511703</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.04729240817566649</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.1470779481805962</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-6.987340492311306</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-6.297662558826622</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.1411716488440068</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.1320111147783922</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.76465457024642</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.558917793146</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.2092256667890127</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.2110282067791123</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-3.032357698392666</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-1.841710033965328</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.06659454168543233</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>-0.03984125644741136</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
